--- a/Test Data/CustomResourceInApp.xlsx
+++ b/Test Data/CustomResourceInApp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Userid</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.google.com/search?source=hp&amp;ei=zpOaW6DhIof0vgTH9YiQDw&amp;q=User%3A311721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.google.com/search?source=hp&amp;ei=zpOaW6DhIof0vgTH9YiQDw&amp;q=User%3A102054</t>
   </si>
 </sst>
 </file>
@@ -121,13 +124,17 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -211,7 +218,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -253,11 +260,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>102054</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.google.com/search?source=hp&amp;ei=zpOaW6DhIof0vgTH9YiQDw&amp;q=User%3A311592"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://www.google.com/search?source=hp&amp;ei=zpOaW6DhIof0vgTH9YiQDw&amp;q=User%3A102054"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
